--- a/baseball/src/main/webapp/z_etc/명칭 바꾼 이력.xlsx
+++ b/baseball/src/main/webapp/z_etc/명칭 바꾼 이력.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shinhanDS\개인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shinhanDS\GitSource\ShinhanDS_Academy\baseball\src\main\webapp\z_etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8A8E74-AC81-44BE-BBAC-A38DB1847FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5B6951-C348-4ABD-BBE2-2EF6BDE1D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42330" yWindow="1170" windowWidth="19200" windowHeight="12615" xr2:uid="{F53CCFBC-7369-447B-A74C-EDF80BFA2DC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>.header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,22 @@
   </si>
   <si>
     <t>#exampleModal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#div-modal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#btn-insertModal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#btn-modal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#div-insertModal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -589,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E4FA19-5F26-4787-874A-17D159760BFB}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -786,6 +802,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/baseball/src/main/webapp/z_etc/명칭 바꾼 이력.xlsx
+++ b/baseball/src/main/webapp/z_etc/명칭 바꾼 이력.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shinhanDS\GitSource\ShinhanDS_Academy\baseball\src\main\webapp\z_etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitSource\ShinhanDS_Academy\baseball\src\main\webapp\z_etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5B6951-C348-4ABD-BBE2-2EF6BDE1D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10231F9C-BA26-41B0-847B-8F403DECE01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42330" yWindow="1170" windowWidth="19200" windowHeight="12615" xr2:uid="{F53CCFBC-7369-447B-A74C-EDF80BFA2DC2}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{F53CCFBC-7369-447B-A74C-EDF80BFA2DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>.header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +189,26 @@
   </si>
   <si>
     <t>#div-modal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatePerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#btn-update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#input-domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#select-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#input-date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +288,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,20 +626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E4FA19-5F26-4787-874A-17D159760BFB}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -629,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -640,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -648,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -656,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -664,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -672,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -680,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -688,7 +709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -696,130 +717,176 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>